--- a/Question_Set2/Role-specific skills/Intellectual Property (IP) Law.xlsx
+++ b/Question_Set2/Role-specific skills/Intellectual Property (IP) Law.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As an IP attorney, you are approached by a software developer who has created software designed to bypass the copy protection measures of a popular video game, Virtual Quest. They believe that this software can be beneficial for gamers who want to modify the game or create custom versions of it. They are currently seeking your advice on the legality of distributing the software to the public.What advice should you give the developer?', 'ques_type': 2, 'options': ['“You can distribute it with a disclaimer stating that it is intended for educational purposes only.”', '“You can freely distribute it without any restrictions because it is considered fair use.”', '“You cannot distribute it, as you are circumventing technological measures intended to prevent unauthorized access.”', '“You can distribute with prior oral consent from the copyright owner.”'], 'score': '“You cannot distribute it, as you are circumventing technological measures intended to prevent unauthorized access.”'}, {'title': "Your client is a software developer who has recently created a mobile application. The app tracks users' daily water intake and provides personalized hydration reminders to help them maintain optimal hydration levels. It uses a unique algorithm to process factors such as age, weight, activity level, and climate conditions to provide personalized hydration recommendations. They are seeking your advice regarding the patentability of their application. What advice should you give?", 'ques_type': 2, 'options': ['“You cannot obtain a patent, as the software algorithm is an abstract idea.” ', '“You cannot obtain a patent, as the software algorithm is only a computer program.”', '“You can only obtain a design patent for the graphical user interface (GUI) of the app.”', '“You can obtain a patent, as the software algorithm has a practical functionality and purpose.”'], 'score': '“You can obtain a patent, as the software algorithm has a practical functionality and purpose.”'}, {'title': 'Your client is a fashion designer who has created a unique fashion accessory brand called GlamourThreads. They have been using this brand name and its colorful logo consistently in their business for the past two years, and they have gained a significant customer following. They are now looking to protect their brand name and logo by registering them as trademarks, and they are seeking your advice regarding the process.Which action should you take?', 'ques_type': 2, 'options': ['Conduct a comprehensive trademark search to check for conflicting marks.', 'File an intent-to-use application to secure a priority filing date. ', 'Apply to register the trademark as a standard character trademark. ', 'File trademark registration only for the brand name and not the colorful logo.'], 'score': 'Conduct a comprehensive trademark search to check for conflicting marks.'}, {'title': 'You have been hired by ZENEX as their IP attorney to draft a licensing agreement. ZENEX is a pharmaceutical company specialized in developing cancer drugs. They are planning to enter into a licensing agreement with HEXIL, a research laboratory. The purpose of the licensing agreement is to grant HEXIL the license to utilize a patented drug formulation developed by ZENEX.Which of the following should you prioritize including when drafting the agreement?', 'ques_type': 2, 'options': ['A provision on field of use restrictions and permitted actions.', 'A provision on assigning ownership regarding modifications.', 'A provision on payment terms and royalty rates.', 'A provision on the duration of the agreement and renewal terms.'], 'score': 'A provision on field of use restrictions and permitted actions.'}]</t>
+    <t>questions = [
+    {
+        "title": "As an IP attorney, you are approached by a software developer who has created software designed to bypass the copy protection measures of a popular video game, Virtual Quest. They believe that this software can be beneficial for gamers who want to modify the game or create custom versions of it. They are currently seeking your advice on the legality of distributing the software to the public.What advice should you give the developer?",
+        "ques_type": 2,
+        "options": [
+            "\u201cYou can distribute it with a disclaimer stating that it is intended for educational purposes only.\u201d",
+            "\u201cYou can freely distribute it without any restrictions because it is considered fair use.\u201d",
+            "\u201cYou cannot distribute it, as you are circumventing technological measures intended to prevent unauthorized access.\u201d",
+            "\u201cYou can distribute with prior oral consent from the copyright owner.\u201d"
+        ],
+        "score": "\u201cYou cannot distribute it, as you are circumventing technological measures intended to prevent unauthorized access.\u201d"
+    },
+    {
+        "title": "Your client is a software developer who has recently created a mobile application. The app tracks users' daily water intake and provides personalized hydration reminders to help them maintain optimal hydration levels. It uses a unique algorithm to process factors such as age, weight, activity level, and climate conditions to provide personalized hydration recommendations. They are seeking your advice regarding the patentability of their application. What advice should you give?",
+        "ques_type": 2,
+        "options": [
+            "\u201cYou cannot obtain a patent, as the software algorithm is an abstract idea.\u201d ",
+            "\u201cYou cannot obtain a patent, as the software algorithm is only a computer program.\u201d",
+            "\u201cYou can only obtain a design patent for the graphical user interface (GUI) of the app.\u201d",
+            "\u201cYou can obtain a patent, as the software algorithm has a practical functionality and purpose.\u201d"
+        ],
+        "score": "\u201cYou can obtain a patent, as the software algorithm has a practical functionality and purpose.\u201d"
+    },
+    {
+        "title": "Your client is a fashion designer who has created a unique fashion accessory brand called GlamourThreads. They have been using this brand name and its colorful logo consistently in their business for the past two years, and they have gained a significant customer following. They are now looking to protect their brand name and logo by registering them as trademarks, and they are seeking your advice regarding the process.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Conduct a comprehensive trademark search to check for conflicting marks.",
+            "File an intent-to-use application to secure a priority filing date. ",
+            "Apply to register the trademark as a standard character trademark. ",
+            "File trademark registration only for the brand name and not the colorful logo."
+        ],
+        "score": "Conduct a comprehensive trademark search to check for conflicting marks."
+    },
+    {
+        "title": "You have been hired by ZENEX as their IP attorney to draft a licensing agreement. ZENEX is a pharmaceutical company specialized in developing cancer drugs. They are planning to enter into a licensing agreement with HEXIL, a research laboratory. The purpose of the licensing agreement is to grant HEXIL the license to utilize a patented drug formulation developed by ZENEX.Which of the following should you prioritize including when drafting the agreement?",
+        "ques_type": 2,
+        "options": [
+            "A provision on field of use restrictions and permitted actions.",
+            "A provision on assigning ownership regarding modifications.",
+            "A provision on payment terms and royalty rates.",
+            "A provision on the duration of the agreement and renewal terms."
+        ],
+        "score": "A provision on field of use restrictions and permitted actions."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
